--- a/案/仕様書/ステージ/ステージ01-龍雲卿/ステージ01-龍雲卿.xlsx
+++ b/案/仕様書/ステージ/ステージ01-龍雲卿/ステージ01-龍雲卿.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryuse\Desktop\create\Elina_Lead\案\仕様書\ステージ\ステージ01-龍雲卿\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96610E2C-B7A2-4CEB-A02E-9B9B15A160AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7D6660-F0D1-45C8-933E-BAC024650171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="叩き出し" sheetId="1" r:id="rId1"/>
     <sheet name="ステージ構成" sheetId="2" r:id="rId2"/>
     <sheet name="月紙石" sheetId="3" r:id="rId3"/>
+    <sheet name="孤島" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>世界観</t>
     <rPh sb="0" eb="3">
@@ -169,12 +170,22 @@
     <t>コンセプトアート</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>全体図（コンセプトアート）</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンタイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,6 +203,15 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Yu Gothic"/>
       <family val="3"/>
@@ -342,9 +362,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -354,15 +382,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -3048,6 +3076,61 @@
         <a:xfrm>
           <a:off x="1381125" y="1466850"/>
           <a:ext cx="7534276" cy="4495800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="図 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F15C58B-C897-D00B-029A-C19F6191DD92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1419225" y="762000"/>
+          <a:ext cx="7772400" cy="7772400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3406,7 +3489,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69886D51-FA41-4615-B25B-C876F8B1BC72}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="A24" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="AD12" sqref="AD12"/>
     </sheetView>
   </sheetViews>
@@ -3425,273 +3508,120 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94C09E29-01C1-4A1A-B646-04ACA7332B8A}">
   <dimension ref="C6:M25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="6" spans="3:13" ht="19.5">
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="4"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="12"/>
     </row>
     <row r="7" spans="3:13">
-      <c r="C7" s="5"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="7"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="4"/>
     </row>
     <row r="8" spans="3:13">
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="9"/>
-      <c r="M8" s="10"/>
+      <c r="C8" s="5"/>
+      <c r="M8" s="6"/>
     </row>
     <row r="9" spans="3:13">
-      <c r="C9" s="8"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="10"/>
+      <c r="C9" s="5"/>
+      <c r="M9" s="6"/>
     </row>
     <row r="10" spans="3:13">
-      <c r="C10" s="8"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="10"/>
+      <c r="C10" s="5"/>
+      <c r="M10" s="6"/>
     </row>
     <row r="11" spans="3:13">
-      <c r="C11" s="8"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="9"/>
-      <c r="M11" s="10"/>
+      <c r="C11" s="5"/>
+      <c r="M11" s="6"/>
     </row>
     <row r="12" spans="3:13">
-      <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="9"/>
-      <c r="M12" s="10"/>
+      <c r="C12" s="5"/>
+      <c r="M12" s="6"/>
     </row>
     <row r="13" spans="3:13">
-      <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="10"/>
+      <c r="C13" s="5"/>
+      <c r="M13" s="6"/>
     </row>
     <row r="14" spans="3:13">
-      <c r="C14" s="8"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="10"/>
+      <c r="C14" s="5"/>
+      <c r="M14" s="6"/>
     </row>
     <row r="15" spans="3:13">
-      <c r="C15" s="8"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="10"/>
+      <c r="C15" s="5"/>
+      <c r="M15" s="6"/>
     </row>
     <row r="16" spans="3:13">
-      <c r="C16" s="8"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="10"/>
+      <c r="C16" s="5"/>
+      <c r="M16" s="6"/>
     </row>
     <row r="17" spans="3:13">
-      <c r="C17" s="8"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="9"/>
-      <c r="M17" s="10"/>
+      <c r="C17" s="5"/>
+      <c r="M17" s="6"/>
     </row>
     <row r="18" spans="3:13">
-      <c r="C18" s="8"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-      <c r="M18" s="10"/>
+      <c r="C18" s="5"/>
+      <c r="M18" s="6"/>
     </row>
     <row r="19" spans="3:13">
-      <c r="C19" s="8"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="10"/>
+      <c r="C19" s="5"/>
+      <c r="M19" s="6"/>
     </row>
     <row r="20" spans="3:13">
-      <c r="C20" s="8"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
+      <c r="C20" s="5"/>
+      <c r="M20" s="6"/>
     </row>
     <row r="21" spans="3:13">
-      <c r="C21" s="8"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="10"/>
+      <c r="C21" s="5"/>
+      <c r="M21" s="6"/>
     </row>
     <row r="22" spans="3:13">
-      <c r="C22" s="8"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="10"/>
+      <c r="C22" s="5"/>
+      <c r="M22" s="6"/>
     </row>
     <row r="23" spans="3:13">
-      <c r="C23" s="8"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="10"/>
+      <c r="C23" s="5"/>
+      <c r="M23" s="6"/>
     </row>
     <row r="24" spans="3:13">
-      <c r="C24" s="8"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="10"/>
+      <c r="C24" s="5"/>
+      <c r="M24" s="6"/>
     </row>
     <row r="25" spans="3:13">
-      <c r="C25" s="11"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="12"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="13"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="8"/>
+      <c r="J25" s="8"/>
+      <c r="K25" s="8"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3701,4 +3631,41 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D76DBC26-C146-482B-9F09-EA77C1559785}">
+  <dimension ref="C3:N3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetData>
+    <row r="3" spans="3:14">
+      <c r="C3" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="15"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:N3"/>
+  </mergeCells>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>